--- a/biology/Botanique/Jardin_du_Vasterival/Jardin_du_Vasterival.xlsx
+++ b/biology/Botanique/Jardin_du_Vasterival/Jardin_du_Vasterival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin du Vasterival est situé à Sainte-Marguerite-sur-Mer, en Seine-Maritime, dans la valleuse du Vasterival. Privé, ce jardin a été créé par la princesse Greta Sturdza (1915-2009), dans le parc de l'ancienne maison d'Albert Roussel, qu'elle occupe de 1955 à 2009[1]. Cet arboretum est conçu pour être beau en toutes saisons et entretenu avec des méthodes simples, sans produits chimiques. Sur 12 ha, il accueille plus de 7 000 espèces et variétés de plantes[2].
+Le jardin du Vasterival est situé à Sainte-Marguerite-sur-Mer, en Seine-Maritime, dans la valleuse du Vasterival. Privé, ce jardin a été créé par la princesse Greta Sturdza (1915-2009), dans le parc de l'ancienne maison d'Albert Roussel, qu'elle occupe de 1955 à 2009. Cet arboretum est conçu pour être beau en toutes saisons et entretenu avec des méthodes simples, sans produits chimiques. Sur 12 ha, il accueille plus de 7 000 espèces et variétés de plantes.
 </t>
         </is>
       </c>
